--- a/SWE523/course.xlsx
+++ b/SWE523/course.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="not-hesaplama" sheetId="1" r:id="rId1"/>
     <sheet name="Slack Time Calculation" sheetId="2" r:id="rId2"/>
+    <sheet name="work-packages" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Package</t>
   </si>
@@ -79,6 +80,120 @@
   </si>
   <si>
     <t>Slack Times Question</t>
+  </si>
+  <si>
+    <t>WP Code</t>
+  </si>
+  <si>
+    <t>WP Name</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>Requirements Analysis and Feasibility Study</t>
+  </si>
+  <si>
+    <t>Dissemination and Sustainability (Month 12-18):</t>
+  </si>
+  <si>
+    <t>4 months</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>5 months</t>
+  </si>
+  <si>
+    <t>Domain-Specific Functionalities Development</t>
+  </si>
+  <si>
+    <t>Large Language Model (LLM) Integration and Training</t>
+  </si>
+  <si>
+    <t>Web Intelligence and System Development</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing (UAT) and Deployment</t>
+  </si>
+  <si>
+    <t>Work Package Time Bar Chart</t>
+  </si>
+  <si>
+    <t>6/24</t>
+  </si>
+  <si>
+    <t>6/25</t>
+  </si>
+  <si>
+    <t>7/24</t>
+  </si>
+  <si>
+    <t>7/25</t>
+  </si>
+  <si>
+    <t>8/24</t>
+  </si>
+  <si>
+    <t>9/24</t>
+  </si>
+  <si>
+    <t>10/24</t>
+  </si>
+  <si>
+    <t>11/24</t>
+  </si>
+  <si>
+    <t>12/24</t>
+  </si>
+  <si>
+    <t>10/25</t>
+  </si>
+  <si>
+    <t>11/25</t>
+  </si>
+  <si>
+    <t>1/25</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>3/25</t>
+  </si>
+  <si>
+    <t>4/25</t>
+  </si>
+  <si>
+    <t>5/25</t>
+  </si>
+  <si>
+    <t>8/25</t>
+  </si>
+  <si>
+    <t>9/25</t>
   </si>
 </sst>
 </file>
@@ -88,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +212,32 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +250,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -232,11 +377,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -259,6 +450,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -925,4 +1158,347 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.26953125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="5.36328125" customWidth="1"/>
+    <col min="8" max="10" width="6" customWidth="1"/>
+    <col min="11" max="19" width="5.36328125" customWidth="1"/>
+    <col min="20" max="21" width="6.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+    </row>
+    <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="2:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="C11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:U2"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="D3:U3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" scale="94" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SWE523/course.xlsx
+++ b/SWE523/course.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="not-hesaplama" sheetId="1" r:id="rId1"/>
     <sheet name="Slack Time Calculation" sheetId="2" r:id="rId2"/>
-    <sheet name="work-packages" sheetId="3" r:id="rId3"/>
+    <sheet name="q-16" sheetId="6" r:id="rId3"/>
+    <sheet name="q-19" sheetId="7" r:id="rId4"/>
+    <sheet name="q-20" sheetId="8" r:id="rId5"/>
+    <sheet name="work-packages" sheetId="3" r:id="rId6"/>
+    <sheet name="cost" sheetId="4" r:id="rId7"/>
+    <sheet name="Sayfa1" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>Package</t>
   </si>
@@ -194,16 +199,74 @@
   </si>
   <si>
     <t>9/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COST FORM FOR TOOLS/EQUIPMENT/SOFTWARE/PUBLISHING PURCHASES </t>
+  </si>
+  <si>
+    <t>WORK PACKAGES</t>
+  </si>
+  <si>
+    <t>TRAVEL EXPENSES</t>
+  </si>
+  <si>
+    <t>ESTIMATED TOTAL COST</t>
+  </si>
+  <si>
+    <t>COSTS</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>Stage Name</t>
+  </si>
+  <si>
+    <t>Amount of Risk</t>
+  </si>
+  <si>
+    <t>Dollar Value of the Project</t>
+  </si>
+  <si>
+    <t>Amount of Risk Mitigation Impact</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Concept/System exploration</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Operations and support</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Retirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +299,32 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +343,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -424,10 +529,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,6 +542,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,25 +586,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,23 +601,70 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ParaBirimi" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -508,6 +675,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="C2:D6" totalsRowShown="0">
+  <autoFilter ref="C2:D6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="COSTS" dataDxfId="6"/>
+    <tableColumn id="2" name="AMOUNT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo2" displayName="Tablo2" ref="B2:E11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B2:E11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Stage Name" dataDxfId="5"/>
+    <tableColumn id="2" name="Amount of Risk" dataDxfId="4"/>
+    <tableColumn id="3" name="Dollar Value of the Project" dataDxfId="3"/>
+    <tableColumn id="4" name="Amount of Risk Mitigation Impact" dataDxfId="2">
+      <calculatedColumnFormula>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,7 +1053,7 @@
   <dimension ref="B2:P15"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,23 +1063,23 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
@@ -953,12 +1146,12 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -976,12 +1169,12 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -995,10 +1188,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1018,13 +1211,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="3"/>
       <c r="P9" s="5"/>
     </row>
@@ -1037,10 +1230,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1054,11 +1247,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1073,10 +1266,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1092,11 +1285,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1115,10 +1308,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="5"/>
@@ -1137,10 +1330,10 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1162,13 +1355,929 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="16" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="16" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="16" width="3.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,261 +2338,261 @@
       <c r="U2" s="25"/>
     </row>
     <row r="3" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="19" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="20" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="20" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="20" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="22"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C11" s="17"/>
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1501,4 +2610,244 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" scale="94" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.26953125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2532750</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="15">
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="15">
+        <v>397520</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(D3:D5)</f>
+        <v>3062770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" scale="94" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="5" width="19" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="34">
+        <v>16</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="34">
+        <v>14</v>
+      </c>
+      <c r="D4" s="34">
+        <v>2</v>
+      </c>
+      <c r="E4" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="34">
+        <v>12</v>
+      </c>
+      <c r="D5" s="34">
+        <v>4</v>
+      </c>
+      <c r="E5" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="34">
+        <v>10</v>
+      </c>
+      <c r="D6" s="34">
+        <v>6</v>
+      </c>
+      <c r="E6" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="34">
+        <v>8</v>
+      </c>
+      <c r="D7" s="34">
+        <v>8</v>
+      </c>
+      <c r="E7" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="36">
+        <v>6</v>
+      </c>
+      <c r="D8" s="36">
+        <v>10</v>
+      </c>
+      <c r="E8" s="36">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="34">
+        <v>4</v>
+      </c>
+      <c r="D9" s="34">
+        <v>12</v>
+      </c>
+      <c r="E9" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>14</v>
+      </c>
+      <c r="E10" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>16</v>
+      </c>
+      <c r="E11" s="34">
+        <f>Tablo2[[#This Row],[Amount of Risk]]*Tablo2[[#This Row],[Dollar Value of the Project]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>